--- a/src/colorMap.xlsx
+++ b/src/colorMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CF031-C98F-4C42-8144-70F961E7E423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF7DA6-6D86-40A2-9B6D-B4A5725159D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Digitale Bildverarbeitung</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Klausur</t>
   </si>
   <si>
-    <t>Es wird die Hintergrundfarbe und Textfarbe aus dieser Spalte für die entsprechende Vorlesung verwendet. Mit '*' gilt als Wildcard für beliebig viele Zeichen.</t>
-  </si>
-  <si>
     <t>Wenn die Zeichenketten in dieser Spalte in einem Vorlesungsnamen vorkommt, wird die Textfarbe auf die entsprechende Zeichenkette übertragen.</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>MI</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>Es wird die Hintergrundfarbe und Textfarbe aus dieser Spalte für die entsprechende Vorlesung verwendet. Mit '*' gilt als Wildcard für beliebig viele Zeichen. ("holiday") ist das Synonym für alle Feiertage.</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +313,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -618,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D276216-C963-4B1C-9A3D-58B2AD26B1FD}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,29 +643,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -665,96 +675,101 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
+      <c r="A6" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
+      <c r="A12" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
+      <c r="A13" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
+      <c r="A14" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
+      <c r="A17" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
